--- a/TodoSample/Todoアプリルール説明書.xlsx
+++ b/TodoSample/Todoアプリルール説明書.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\AndroidStudy\TodoSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD87197-4800-427D-9AA5-51E291DB9453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{044BB09B-FBCD-422E-ACE3-1CE3CE66C1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{4F90D901-20C6-470A-8D64-A4201C71C6E3}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{4F90D901-20C6-470A-8D64-A4201C71C6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="基本説明" sheetId="1" r:id="rId1"/>
     <sheet name="基本説明 (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="ツールバー(画面上部のメニュー)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="ツールバー(画面上部のメニュー)" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Todoアプリ</t>
     <phoneticPr fontId="1"/>
@@ -183,16 +185,6 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>ハヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・命名規則は守ること。</t>
-    <rPh sb="1" eb="5">
-      <t>メイメイキソク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -410,6 +402,19 @@
       <t>ジッソウホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・命名規則は守ること。（AOSP）</t>
+    <rPh sb="1" eb="5">
+      <t>メイメイキソク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git@github.com:Emu9/TodoApp.git</t>
   </si>
 </sst>
 </file>
@@ -693,16 +698,409 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>294795</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>132321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2F76E5-9B7C-4735-B269-EAB5A0529027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="0"/>
+          <a:ext cx="3838095" cy="8228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D5505D-66A1-48A8-81F4-7663E630DC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2877110" y="1411941"/>
+          <a:ext cx="3230096" cy="613522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>182097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D105785B-2EBE-477E-9F6E-A895AC677A32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2877110" y="2064685"/>
+          <a:ext cx="3218890" cy="613522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67021A1-83AB-419D-9D96-F359D97F21CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="3000375"/>
+          <a:ext cx="2990850" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120464</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368114</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE92848-53B1-4F55-A7D1-DAC58C84F79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2854699" y="3681693"/>
+          <a:ext cx="2981886" cy="610721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396B9480-D528-422C-9B41-62A352A37897}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="4543425"/>
+          <a:ext cx="2990850" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18570</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>37071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438F77AC-24DC-48C3-A515-3E015FBD3C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="142875"/>
+          <a:ext cx="3838095" cy="8228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -732,7 +1130,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="676275" y="485775"/>
+          <a:off x="657225" y="533400"/>
           <a:ext cx="7620000" cy="2438400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1054,7 +1452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B01F6A2-1774-4CC7-BCAD-33CA531C7F42}">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1137,7 +1537,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D11" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1151,7 +1551,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D12" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1165,7 +1565,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D13" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -1179,7 +1579,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D14" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1193,7 +1593,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="D15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -1219,32 +1619,32 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C19" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C20" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C21" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C22" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C23" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5147B51B-2DC3-4048-B496-7A1CF864A8DF}">
   <dimension ref="B1:M57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1629,6 +2031,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7283E33A-E2A1-4B24-8E64-D36C34F773A6}">
+  <dimension ref="N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="9" spans="14:14" x14ac:dyDescent="0.4">
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F470B91-D752-4EEA-B36F-25BEC086C89E}">
   <dimension ref="A1:A21"/>
   <sheetViews>
@@ -1638,22 +2062,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
